--- a/First Case/result.xlsx
+++ b/First Case/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,842 +527,1178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7690540552139282</v>
+        <v>0.9169721603393555</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7847195863723755</v>
+        <v>0.9034055471420288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6214861869812012</v>
+        <v>0.8238838315010071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8883728981018066</v>
+        <v>0.9822863936424255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9409686326980591</v>
+        <v>0.9791151881217957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8657095432281494</v>
+        <v>0.929443895816803</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8282453417778015</v>
+        <v>0.9095871448516846</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7233191132545471</v>
+        <v>0.7916409373283386</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1797323971986771</v>
+        <v>0.5876227021217346</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4567442536354065</v>
+        <v>0.973990797996521</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9957019090652466</v>
+        <v>0.9999313354492188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9812003374099731</v>
+        <v>0.9953294396400452</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5763620138168335</v>
+        <v>0.6895915269851685</v>
       </c>
       <c r="N2" t="n">
-        <v>0.89559006690979</v>
+        <v>0.912463903427124</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5904195308685303</v>
+        <v>0.91433185338974</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9710189700126648</v>
+        <v>0.9970520734786987</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8106662631034851</v>
+        <v>0.9407112598419189</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9243876934051514</v>
+        <v>0.903795063495636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5654242038726807</v>
+        <v>0.7690540552139282</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3972674012184143</v>
+        <v>0.7847195863723755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4238983988761902</v>
+        <v>0.6214861869812012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.726000189781189</v>
+        <v>0.8883728981018066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7571679353713989</v>
+        <v>0.9409686326980591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7254154682159424</v>
+        <v>0.8657095432281494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2267105728387833</v>
+        <v>0.8282453417778015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3021531403064728</v>
+        <v>0.7233191132545471</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01525414362549782</v>
+        <v>0.1797323971986771</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3805563151836395</v>
+        <v>0.4567442536354065</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9977251291275024</v>
+        <v>0.9957019090652466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2119146585464478</v>
+        <v>0.9812003374099731</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5313896536827087</v>
+        <v>0.5763620138168335</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5700227022171021</v>
+        <v>0.89559006690979</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4111419916152954</v>
+        <v>0.5904195308685303</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7875908613204956</v>
+        <v>0.9710189700126648</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7936564683914185</v>
+        <v>0.8106662631034851</v>
       </c>
       <c r="R3" t="n">
-        <v>0.769675612449646</v>
+        <v>0.9243876934051514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.571084201335907</v>
+        <v>0.5654242038726807</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5198987126350403</v>
+        <v>0.3972674012184143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4165379106998444</v>
+        <v>0.4238983988761902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7733261585235596</v>
+        <v>0.726000189781189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7668048143386841</v>
+        <v>0.7571679353713989</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7594671845436096</v>
+        <v>0.7254154682159424</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4058213531970978</v>
+        <v>0.2267105728387833</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2710598707199097</v>
+        <v>0.3021531403064728</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05943642556667328</v>
+        <v>-0.01525414362549782</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2844420671463013</v>
+        <v>0.3805563151836395</v>
       </c>
       <c r="K4" t="n">
-        <v>0.191096156835556</v>
+        <v>0.9977251291275024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03623396903276443</v>
+        <v>0.2119146585464478</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5646771788597107</v>
+        <v>0.5313896536827087</v>
       </c>
       <c r="N4" t="n">
-        <v>0.411039799451828</v>
+        <v>0.5700227022171021</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4192779958248138</v>
+        <v>0.4111419916152954</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7830002903938293</v>
+        <v>0.7875908613204956</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7860169410705566</v>
+        <v>0.7936564683914185</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7939535975456238</v>
+        <v>0.769675612449646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4754390120506287</v>
+        <v>0.571084201335907</v>
       </c>
       <c r="B5" t="n">
-        <v>0.46831876039505</v>
+        <v>0.5198987126350403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4011223912239075</v>
+        <v>0.4165379106998444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7298079133033752</v>
+        <v>0.7733261585235596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7516092658042908</v>
+        <v>0.7668048143386841</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7210124731063843</v>
+        <v>0.7594671845436096</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4904416501522064</v>
+        <v>0.4058213531970978</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3252390921115875</v>
+        <v>0.2710598707199097</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1175578311085701</v>
+        <v>0.05943642556667328</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3525095880031586</v>
+        <v>0.2844420671463013</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1920170336961746</v>
+        <v>0.191096156835556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1098918169736862</v>
+        <v>0.03623396903276443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4546318054199219</v>
+        <v>0.5646771788597107</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4700103104114532</v>
+        <v>0.411039799451828</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3777018785476685</v>
+        <v>0.4192779958248138</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7983440160751343</v>
+        <v>0.7830002903938293</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7922425866127014</v>
+        <v>0.7860169410705566</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7944303750991821</v>
+        <v>0.7939535975456238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4846789538860321</v>
+        <v>0.4754390120506287</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5382874608039856</v>
+        <v>0.46831876039505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4581121504306793</v>
+        <v>0.4011223912239075</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7625221610069275</v>
+        <v>0.7298079133033752</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7629348635673523</v>
+        <v>0.7516092658042908</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7185880541801453</v>
+        <v>0.7210124731063843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388863414525986</v>
+        <v>0.4904416501522064</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07839746028184891</v>
+        <v>0.3252390921115875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07429186999797821</v>
+        <v>0.1175578311085701</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2517681121826172</v>
+        <v>0.3525095880031586</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2041881829500198</v>
+        <v>0.1920170336961746</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2589678168296814</v>
+        <v>0.1098918169736862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4817044138908386</v>
+        <v>0.4546318054199219</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3884198069572449</v>
+        <v>0.4700103104114532</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4679300785064697</v>
+        <v>0.3777018785476685</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7700559496879578</v>
+        <v>0.7983440160751343</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8071959018707275</v>
+        <v>0.7922425866127014</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7707027196884155</v>
+        <v>0.7944303750991821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5463926196098328</v>
+        <v>0.4846789538860321</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3485778272151947</v>
+        <v>0.5382874608039856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.431570440530777</v>
+        <v>0.4581121504306793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7222904562950134</v>
+        <v>0.7625221610069275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7293153405189514</v>
+        <v>0.7629348635673523</v>
       </c>
       <c r="F7" t="n">
-        <v>0.726010799407959</v>
+        <v>0.7185880541801453</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1743279546499252</v>
+        <v>0.2388863414525986</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3403213918209076</v>
+        <v>0.07839746028184891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1254573166370392</v>
+        <v>0.07429186999797821</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4414101541042328</v>
+        <v>0.2517681121826172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9924668669700623</v>
+        <v>0.2041881829500198</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2131142765283585</v>
+        <v>0.2589678168296814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4930531084537506</v>
+        <v>0.4817044138908386</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6104586720466614</v>
+        <v>0.3884198069572449</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3583178818225861</v>
+        <v>0.4679300785064697</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7850393652915955</v>
+        <v>0.7700559496879578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7900580763816833</v>
+        <v>0.8071959018707275</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7625782489776611</v>
+        <v>0.7707027196884155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5336287617683411</v>
+        <v>0.8706614971160889</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4353025555610657</v>
+        <v>0.8978508114814758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3824659883975983</v>
+        <v>0.7992222905158997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7556089758872986</v>
+        <v>0.9580268859863281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7546866536140442</v>
+        <v>0.9704616069793701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7458807826042175</v>
+        <v>0.9507141709327698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3063200712203979</v>
+        <v>0.921561062335968</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3062338829040527</v>
+        <v>0.895593523979187</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1024510115385056</v>
+        <v>0.607931911945343</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4011898934841156</v>
+        <v>0.8617236614227295</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1851713210344315</v>
+        <v>0.9973581433296204</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05776151642203331</v>
+        <v>0.9879998564720154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4916026294231415</v>
+        <v>0.6787405610084534</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4476624429225922</v>
+        <v>0.9256585836410522</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3653764128684998</v>
+        <v>0.81910240650177</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7747174501419067</v>
+        <v>0.967734694480896</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7734084129333496</v>
+        <v>0.9320327043533325</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7903978228569031</v>
+        <v>0.9676439166069031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5248246192932129</v>
+        <v>0.5463926196098328</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4159289300441742</v>
+        <v>0.3485778272151947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4446739852428436</v>
+        <v>0.431570440530777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7295100688934326</v>
+        <v>0.7222904562950134</v>
       </c>
       <c r="E9" t="n">
-        <v>0.744576096534729</v>
+        <v>0.7293153405189514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7175253033638</v>
+        <v>0.726010799407959</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4404310286045074</v>
+        <v>0.1743279546499252</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4225085973739624</v>
+        <v>0.3403213918209076</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1915458589792252</v>
+        <v>0.1254573166370392</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4361365139484406</v>
+        <v>0.4414101541042328</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1882196217775345</v>
+        <v>0.9924668669700623</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1401400119066238</v>
+        <v>0.2131142765283585</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5847223401069641</v>
+        <v>0.4930531084537506</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5050747394561768</v>
+        <v>0.6104586720466614</v>
       </c>
       <c r="O9" t="n">
-        <v>0.358213871717453</v>
+        <v>0.3583178818225861</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7897968292236328</v>
+        <v>0.7850393652915955</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.778956413269043</v>
+        <v>0.7900580763816833</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7904424667358398</v>
+        <v>0.7625782489776611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5132756233215332</v>
+        <v>0.5336287617683411</v>
       </c>
       <c r="B10" t="n">
-        <v>0.518610417842865</v>
+        <v>0.4353025555610657</v>
       </c>
       <c r="C10" t="n">
-        <v>0.424315333366394</v>
+        <v>0.3824659883975983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7462732195854187</v>
+        <v>0.7556089758872986</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7579965591430664</v>
+        <v>0.7546866536140442</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7274057865142822</v>
+        <v>0.7458807826042175</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2568226754665375</v>
+        <v>0.3063200712203979</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1171102300286293</v>
+        <v>0.3062338829040527</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3666099607944489</v>
+        <v>0.1024510115385056</v>
       </c>
       <c r="J10" t="n">
-        <v>0.302319347858429</v>
+        <v>0.4011898934841156</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1972052156925201</v>
+        <v>0.1851713210344315</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2634909451007843</v>
+        <v>0.05776151642203331</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4786620438098907</v>
+        <v>0.4916026294231415</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4046809077262878</v>
+        <v>0.4476624429225922</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5055526494979858</v>
+        <v>0.3653764128684998</v>
       </c>
       <c r="P10" t="n">
-        <v>0.776081919670105</v>
+        <v>0.7747174501419067</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7894171476364136</v>
+        <v>0.7734084129333496</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7675226330757141</v>
+        <v>0.7903978228569031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4970018267631531</v>
+        <v>0.5248246192932129</v>
       </c>
       <c r="B11" t="n">
-        <v>0.443327933549881</v>
+        <v>0.4159289300441742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4058608114719391</v>
+        <v>0.4446739852428436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7393744587898254</v>
+        <v>0.7295100688934326</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7626486420631409</v>
+        <v>0.744576096534729</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7548171281814575</v>
+        <v>0.7175253033638</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2400316148996353</v>
+        <v>0.4404310286045074</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03113630972802639</v>
+        <v>0.4225085973739624</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1635228842496872</v>
+        <v>0.1915458589792252</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3566727340221405</v>
+        <v>0.4361365139484406</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1941210776567459</v>
+        <v>0.1882196217775345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3382265269756317</v>
+        <v>0.1401400119066238</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4959858059883118</v>
+        <v>0.5847223401069641</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5331982970237732</v>
+        <v>0.5050747394561768</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5230044722557068</v>
+        <v>0.358213871717453</v>
       </c>
       <c r="P11" t="n">
-        <v>0.759821891784668</v>
+        <v>0.7897968292236328</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7882107496261597</v>
+        <v>0.778956413269043</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7900650501251221</v>
+        <v>0.7904424667358398</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4757992327213287</v>
+        <v>0.5132756233215332</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4004696905612946</v>
+        <v>0.518610417842865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4172547459602356</v>
+        <v>0.424315333366394</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7111726403236389</v>
+        <v>0.7462732195854187</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7509585618972778</v>
+        <v>0.7579965591430664</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7227679491043091</v>
+        <v>0.7274057865142822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2751616239547729</v>
+        <v>0.2568226754665375</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05008231848478317</v>
+        <v>0.1171102300286293</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1425762921571732</v>
+        <v>0.3666099607944489</v>
       </c>
       <c r="J12" t="n">
-        <v>0.473712682723999</v>
+        <v>0.302319347858429</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1959262788295746</v>
+        <v>0.1972052156925201</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4601807296276093</v>
+        <v>0.2634909451007843</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4551023542881012</v>
+        <v>0.4786620438098907</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5691223740577698</v>
+        <v>0.4046809077262878</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4826778769493103</v>
+        <v>0.5055526494979858</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7837238907814026</v>
+        <v>0.776081919670105</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7954519391059875</v>
+        <v>0.7894171476364136</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7916668057441711</v>
+        <v>0.7675226330757141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5746302604675293</v>
+        <v>0.8772965669631958</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5001590251922607</v>
+        <v>0.8904224634170532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.493827611207962</v>
+        <v>0.8894545435905457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7413074374198914</v>
+        <v>0.9833258986473083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7561966180801392</v>
+        <v>0.9838962554931641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7365684509277344</v>
+        <v>0.9851111173629761</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08822775632143021</v>
+        <v>0.926618218421936</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1841274946928024</v>
+        <v>0.9192130565643311</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2248220443725586</v>
+        <v>0.8816167116165161</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4457420110702515</v>
+        <v>0.9773346185684204</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2067146748304367</v>
+        <v>0.9996294975280762</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2108001857995987</v>
+        <v>0.968812882900238</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5696702599525452</v>
+        <v>0.8676885366439819</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5399878621101379</v>
+        <v>0.9586904048919678</v>
       </c>
       <c r="O13" t="n">
-        <v>0.41395303606987</v>
+        <v>0.9728059768676758</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7612107992172241</v>
+        <v>0.9929585456848145</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7993508577346802</v>
+        <v>0.9905142188072205</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7889781594276428</v>
+        <v>0.9902840852737427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7623926997184753</v>
+        <v>0.4970018267631531</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8649590611457825</v>
+        <v>0.443327933549881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7889968752861023</v>
+        <v>0.4058608114719391</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9103730320930481</v>
+        <v>0.7393744587898254</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9310572743415833</v>
+        <v>0.7626486420631409</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9063090682029724</v>
+        <v>0.7548171281814575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8441195487976074</v>
+        <v>0.2400316148996353</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8900110125541687</v>
+        <v>0.03113630972802639</v>
       </c>
       <c r="I14" t="n">
-        <v>0.401564747095108</v>
+        <v>0.1635228842496872</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8317987322807312</v>
+        <v>0.3566727340221405</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9834886193275452</v>
+        <v>0.1941210776567459</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9166401028633118</v>
+        <v>0.3382265269756317</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3985175490379333</v>
+        <v>0.4959858059883118</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8582056164741516</v>
+        <v>0.5331982970237732</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5429368019104004</v>
+        <v>0.5230044722557068</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9469423890113831</v>
+        <v>0.759821891784668</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9502241015434265</v>
+        <v>0.7882107496261597</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9912170171737671</v>
+        <v>0.7900650501251221</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4966841638088226</v>
+        <v>0.4757992327213287</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4762334525585175</v>
+        <v>0.4004696905612946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4085021913051605</v>
+        <v>0.4172547459602356</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7681260704994202</v>
+        <v>0.7111726403236389</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7852697372436523</v>
+        <v>0.7509585618972778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7871307134628296</v>
+        <v>0.7227679491043091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0856478214263916</v>
+        <v>0.2751616239547729</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04721749946475029</v>
+        <v>0.05008231848478317</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07899868488311768</v>
+        <v>0.1425762921571732</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6453542113304138</v>
+        <v>0.473712682723999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9905245304107666</v>
+        <v>0.1959262788295746</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1820090860128403</v>
+        <v>0.4601807296276093</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5393715500831604</v>
+        <v>0.4551023542881012</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3981290757656097</v>
+        <v>0.5691223740577698</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3784495890140533</v>
+        <v>0.4826778769493103</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8076232075691223</v>
+        <v>0.7837238907814026</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7926220893859863</v>
+        <v>0.7954519391059875</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7916923761367798</v>
+        <v>0.7916668057441711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>0.5746302604675293</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5001590251922607</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.493827611207962</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7413074374198914</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7561966180801392</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7365684509277344</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.08822775632143021</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1841274946928024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2248220443725586</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4457420110702515</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2067146748304367</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2108001857995987</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5696702599525452</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5399878621101379</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.41395303606987</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7612107992172241</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.7993508577346802</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.7889781594276428</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.9175269603729248</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9648795127868652</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8894793391227722</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9845228791236877</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9758903980255127</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9658917784690857</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9749067425727844</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9667388796806335</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7948964238166809</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9548932909965515</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9995637536048889</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9762445688247681</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7103703022003174</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9247850179672241</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9167075157165527</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9885901808738708</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.9917369484901428</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9887431859970093</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.7623926997184753</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8649590611457825</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7889968752861023</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9103730320930481</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9310572743415833</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9063090682029724</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8441195487976074</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8900110125541687</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.401564747095108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8317987322807312</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9834886193275452</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9166401028633118</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3985175490379333</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8582056164741516</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5429368019104004</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9469423890113831</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9502241015434265</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.9912170171737671</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4966841638088226</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4762334525585175</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4085021913051605</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7681260704994202</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7852697372436523</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7871307134628296</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0856478214263916</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04721749946475029</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.07899868488311768</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6453542113304138</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9905245304107666</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1820090860128403</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5393715500831604</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3981290757656097</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3784495890140533</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8076232075691223</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.7926220893859863</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.7916923761367798</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.9320080876350403</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.95938640832901</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8956301808357239</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9926337003707886</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9939942955970764</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9888845086097717</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9716308116912842</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9769402146339417</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6874228715896606</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9977025389671326</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9951990246772766</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9990482330322266</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8189261555671692</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8637166619300842</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9738138318061829</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9984138607978821</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9872246384620667</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9942290186882019</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>0.427449107170105</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>0.4460030496120453</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>0.4314703643321991</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>0.7129196524620056</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E21" t="n">
         <v>0.7512022256851196</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F21" t="n">
         <v>0.7432607412338257</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G21" t="n">
         <v>0.2395445555448532</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>0.07276199758052826</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>0.04947760328650475</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J21" t="n">
         <v>0.5489092469215393</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K21" t="n">
         <v>0.9580535888671875</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.2063746452331543</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M21" t="n">
         <v>0.3718580901622772</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N21" t="n">
         <v>0.4129856526851654</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O21" t="n">
         <v>0.3421147167682648</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P21" t="n">
         <v>0.8026651740074158</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q21" t="n">
         <v>0.7880653738975525</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R21" t="n">
         <v>0.793242335319519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.8904027938842773</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9325607419013977</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9091122150421143</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9945428967475891</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9975793361663818</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.996863842010498</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.959260880947113</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9513580203056335</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9351595044136047</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9991346597671509</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9999859929084778</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.99997478723526</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.951386570930481</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7049192190170288</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9535892605781555</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.9952443242073059</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9999659061431885</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9989399909973145</v>
       </c>
     </row>
   </sheetData>
